--- a/Recheche stage/Liste entreprises.xlsx
+++ b/Recheche stage/Liste entreprises.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve">Nom Entreprise</t>
   </si>
@@ -31,15 +31,112 @@
   </si>
   <si>
     <t>Réponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NORD SERVICE TELEMATIQUE SARL</t>
+  </si>
+  <si>
+    <t>LILLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Par sponteo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIZZDEV FRANCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EASY DEVELOPPEMENT</t>
+  </si>
+  <si>
+    <t>ALTEO</t>
+  </si>
+  <si>
+    <t>NORDSOFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VILLENEUVE D'ASCQ</t>
+  </si>
+  <si>
+    <t>UNIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTER WAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INEAT CONSEIL</t>
+  </si>
+  <si>
+    <t>EUROPRODUCTIQUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUSINESS APTITUDE</t>
+  </si>
+  <si>
+    <t>LEZENNES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATIVE INGENIERIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SII (SOCIETE POUR L'INFORMATIQUE INDUSTRIEL)</t>
+  </si>
+  <si>
+    <t>INOUIT</t>
+  </si>
+  <si>
+    <t>ELOSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APSIDE NORD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AKKA I&amp;S</t>
+  </si>
+  <si>
+    <t>DEVOTEAM</t>
+  </si>
+  <si>
+    <t>NIJI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA MADELEINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRAITEMENT ET GESTION INFORMATIQUE (TGI Maritime Software)</t>
+  </si>
+  <si>
+    <t>DUNKERQUE</t>
+  </si>
+  <si>
+    <t>NEXTOO</t>
+  </si>
+  <si>
+    <t>ROUBAIX</t>
+  </si>
+  <si>
+    <t>SFEIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA COOPERATIVE DES TILLEULS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="160" formatCode="dd/mm/yyyy"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
+      <color theme="1"/>
+      <sz val="11.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b/>
       <color theme="1"/>
       <sz val="11.000000"/>
       <scheme val="minor"/>
@@ -53,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -71,6 +168,19 @@
       <top style="thick">
         <color theme="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
       <bottom style="thick">
         <color theme="1"/>
       </bottom>
@@ -114,11 +224,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color theme="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
@@ -157,35 +293,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="23">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="10" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="11" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="12" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -694,11 +883,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="16.7109375"/>
+  </cols>
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" s="1" t="s">
@@ -711,506 +903,682 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2" t="s">
+      <c r="N1" s="2"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="5"/>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="5"/>
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9">
+        <v>44934</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="10"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="16"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="5"/>
+      <c r="A3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="17">
+        <v>44934</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="10"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="16"/>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="5"/>
+      <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="17">
+        <v>44934</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="16"/>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="5"/>
+      <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="17">
+        <v>44934</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="10"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="16"/>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="5"/>
+      <c r="A6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="17">
+        <v>44934</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="16"/>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="5"/>
+      <c r="A7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="17">
+        <v>44934</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="10"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="16"/>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="5"/>
+      <c r="A8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="17">
+        <v>44934</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="10"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="16"/>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="5"/>
+      <c r="A9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="17">
+        <v>44934</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="10"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="16"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="5"/>
+      <c r="A10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="17">
+        <v>44934</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="10"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="16"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="5"/>
+      <c r="A11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="17">
+        <v>44934</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="10"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="16"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="5"/>
-    </row>
-    <row r="13" ht="14.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="5"/>
+      <c r="A12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="17">
+        <v>44934</v>
+      </c>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="10"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="16"/>
+    </row>
+    <row r="13" ht="32.25" customHeight="1">
+      <c r="A13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="17">
+        <v>44934</v>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" s="10"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="16"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="5"/>
+      <c r="A14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="17">
+        <v>44934</v>
+      </c>
+      <c r="H14" s="18"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="10"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="16"/>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="5"/>
+      <c r="A15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="17">
+        <v>44934</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="10"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="16"/>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="5"/>
+      <c r="A16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="17">
+        <v>44934</v>
+      </c>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N16" s="10"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="16"/>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="5"/>
+      <c r="A17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="17">
+        <v>44934</v>
+      </c>
+      <c r="H17" s="18"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="10"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="16"/>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="5"/>
+      <c r="A18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="17">
+        <v>44934</v>
+      </c>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="10"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="16"/>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="5"/>
-    </row>
-    <row r="20" ht="14.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="5"/>
+      <c r="A19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="17">
+        <v>44934</v>
+      </c>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="10"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="16"/>
+    </row>
+    <row r="20" ht="51.75" customHeight="1">
+      <c r="A20" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="17">
+        <v>44934</v>
+      </c>
+      <c r="H20" s="18"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="10"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="16"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="5"/>
+      <c r="A21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="17">
+        <v>44934</v>
+      </c>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="10"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="16"/>
     </row>
     <row r="22" ht="14.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="5"/>
+      <c r="A22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="17">
+        <v>44934</v>
+      </c>
+      <c r="H22" s="18"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="10"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="16"/>
     </row>
     <row r="23" ht="14.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="5"/>
+      <c r="A23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="17">
+        <v>44934</v>
+      </c>
+      <c r="H23" s="18"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="10"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="16"/>
     </row>
     <row r="24" ht="14.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="5"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="16"/>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="5"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="150">

--- a/Recheche stage/Liste entreprises.xlsx
+++ b/Recheche stage/Liste entreprises.xlsx
@@ -1,51 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\59011-14-05\Recheche stage\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t xml:space="preserve">Nom Entreprise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lieu entreprise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date prise contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date relancement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact Entreprise</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
+  <si>
+    <t>Nom Entreprise</t>
+  </si>
+  <si>
+    <t>Lieu entreprise</t>
+  </si>
+  <si>
+    <t>Date prise contact</t>
+  </si>
+  <si>
+    <t>Date relancement</t>
+  </si>
+  <si>
+    <t>Contact Entreprise</t>
   </si>
   <si>
     <t>Réponse</t>
   </si>
   <si>
-    <t xml:space="preserve">NORD SERVICE TELEMATIQUE SARL</t>
+    <t>NORD SERVICE TELEMATIQUE SARL</t>
   </si>
   <si>
     <t>LILLE</t>
   </si>
   <si>
-    <t xml:space="preserve">Par sponteo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIZZDEV FRANCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EASY DEVELOPPEMENT</t>
+    <t>Par sponteo</t>
+  </si>
+  <si>
+    <t>BIZZDEV FRANCE</t>
+  </si>
+  <si>
+    <t>EASY DEVELOPPEMENT</t>
   </si>
   <si>
     <t>ALTEO</t>
@@ -54,31 +60,31 @@
     <t>NORDSOFT</t>
   </si>
   <si>
-    <t xml:space="preserve">VILLENEUVE D'ASCQ</t>
+    <t>VILLENEUVE D'ASCQ</t>
   </si>
   <si>
     <t>UNIS</t>
   </si>
   <si>
-    <t xml:space="preserve">ALTER WAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INEAT CONSEIL</t>
+    <t>ALTER WAY</t>
+  </si>
+  <si>
+    <t>INEAT CONSEIL</t>
   </si>
   <si>
     <t>EUROPRODUCTIQUE</t>
   </si>
   <si>
-    <t xml:space="preserve">BUSINESS APTITUDE</t>
+    <t>BUSINESS APTITUDE</t>
   </si>
   <si>
     <t>LEZENNES</t>
   </si>
   <si>
-    <t xml:space="preserve">CREATIVE INGENIERIE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SII (SOCIETE POUR L'INFORMATIQUE INDUSTRIEL)</t>
+    <t>CREATIVE INGENIERIE</t>
+  </si>
+  <si>
+    <t>SII (SOCIETE POUR L'INFORMATIQUE INDUSTRIEL)</t>
   </si>
   <si>
     <t>INOUIT</t>
@@ -87,10 +93,10 @@
     <t>ELOSI</t>
   </si>
   <si>
-    <t xml:space="preserve">APSIDE NORD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKKA I&amp;S</t>
+    <t>APSIDE NORD</t>
+  </si>
+  <si>
+    <t>AKKA I&amp;S</t>
   </si>
   <si>
     <t>DEVOTEAM</t>
@@ -99,10 +105,10 @@
     <t>NIJI</t>
   </si>
   <si>
-    <t xml:space="preserve">LA MADELEINE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRAITEMENT ET GESTION INFORMATIQUE (TGI Maritime Software)</t>
+    <t>LA MADELEINE</t>
+  </si>
+  <si>
+    <t>TRAITEMENT ET GESTION INFORMATIQUE (TGI Maritime Software)</t>
   </si>
   <si>
     <t>DUNKERQUE</t>
@@ -117,28 +123,28 @@
     <t>SFEIR</t>
   </si>
   <si>
-    <t xml:space="preserve">LA COOPERATIVE DES TILLEULS</t>
+    <t>LA COOPERATIVE DES TILLEULS</t>
+  </si>
+  <si>
+    <t>Neg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="160" formatCode="dd/mm/yyyy"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <b/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -306,74 +312,71 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="9" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="10" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="11" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="12" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -386,295 +389,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="New Office">
       <a:dk1>
@@ -877,22 +600,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19:R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="16.7109375"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -924,7 +649,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="2" ht="14.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -943,16 +668,16 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="N2" s="10"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="16"/>
-    </row>
-    <row r="3" ht="14.25">
+      <c r="O2" s="12"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="15"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -963,24 +688,24 @@
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="17">
-        <v>44934</v>
-      </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
+      <c r="G3" s="16">
+        <v>44934</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="N3" s="10"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="16"/>
-    </row>
-    <row r="4" ht="14.25">
+      <c r="O3" s="12"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="15"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
@@ -991,24 +716,24 @@
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="17">
-        <v>44934</v>
-      </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
+      <c r="G4" s="16">
+        <v>44934</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="10"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="16"/>
-    </row>
-    <row r="5" ht="14.25">
+      <c r="O4" s="12"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="15"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -1019,24 +744,24 @@
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="17">
-        <v>44934</v>
-      </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
+      <c r="G5" s="16">
+        <v>44934</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="N5" s="10"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="16"/>
-    </row>
-    <row r="6" ht="14.25">
+      <c r="O5" s="12"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="15"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -1047,24 +772,24 @@
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="17">
-        <v>44934</v>
-      </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
+      <c r="G6" s="16">
+        <v>44934</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="N6" s="10"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="16"/>
-    </row>
-    <row r="7" ht="14.25">
+      <c r="O6" s="12"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="15"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -1075,24 +800,24 @@
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="17">
-        <v>44934</v>
-      </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
+      <c r="G7" s="16">
+        <v>44934</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="10" t="s">
         <v>8</v>
       </c>
       <c r="N7" s="10"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="16"/>
-    </row>
-    <row r="8" ht="14.25">
+      <c r="O7" s="12"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="15"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -1103,24 +828,24 @@
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="17">
-        <v>44934</v>
-      </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
+      <c r="G8" s="16">
+        <v>44934</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="10" t="s">
         <v>8</v>
       </c>
       <c r="N8" s="10"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="16"/>
-    </row>
-    <row r="9" ht="14.25">
+      <c r="O8" s="12"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="15"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
@@ -1131,24 +856,24 @@
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="17">
-        <v>44934</v>
-      </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
+      <c r="G9" s="16">
+        <v>44934</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
-      <c r="M9" s="12" t="s">
+      <c r="M9" s="10" t="s">
         <v>8</v>
       </c>
       <c r="N9" s="10"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="16"/>
-    </row>
-    <row r="10" ht="14.25">
+      <c r="O9" s="12"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="15"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
@@ -1159,24 +884,24 @@
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="17">
-        <v>44934</v>
-      </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
+      <c r="G10" s="16">
+        <v>44934</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
-      <c r="M10" s="12" t="s">
+      <c r="M10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="N10" s="10"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="16"/>
-    </row>
-    <row r="11" ht="14.25">
+      <c r="O10" s="12"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="15"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
@@ -1187,24 +912,24 @@
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="17">
-        <v>44934</v>
-      </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="19"/>
+      <c r="G11" s="16">
+        <v>44934</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="18"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
-      <c r="M11" s="12" t="s">
+      <c r="M11" s="10" t="s">
         <v>8</v>
       </c>
       <c r="N11" s="10"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="16"/>
-    </row>
-    <row r="12" ht="14.25">
+      <c r="O11" s="12"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="15"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>20</v>
       </c>
@@ -1215,52 +940,52 @@
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="17">
-        <v>44934</v>
-      </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="19"/>
+      <c r="G12" s="16">
+        <v>44934</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="18"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
-      <c r="M12" s="12" t="s">
+      <c r="M12" s="10" t="s">
         <v>8</v>
       </c>
       <c r="N12" s="10"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="16"/>
-    </row>
-    <row r="13" ht="32.25" customHeight="1">
-      <c r="A13" s="20" t="s">
+      <c r="O12" s="12"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="15"/>
+    </row>
+    <row r="13" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="17">
-        <v>44934</v>
-      </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="19"/>
+      <c r="G13" s="16">
+        <v>44934</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
-      <c r="M13" s="12" t="s">
+      <c r="M13" s="10" t="s">
         <v>8</v>
       </c>
       <c r="N13" s="10"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="16"/>
-    </row>
-    <row r="14" ht="14.25">
+      <c r="O13" s="12"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="15"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>22</v>
       </c>
@@ -1271,24 +996,24 @@
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="17">
-        <v>44934</v>
-      </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="19"/>
+      <c r="G14" s="16">
+        <v>44934</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="18"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
-      <c r="M14" s="12" t="s">
+      <c r="M14" s="10" t="s">
         <v>8</v>
       </c>
       <c r="N14" s="10"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="16"/>
-    </row>
-    <row r="15" ht="14.25">
+      <c r="O14" s="12"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="15"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>23</v>
       </c>
@@ -1299,24 +1024,24 @@
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="17">
-        <v>44934</v>
-      </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="19"/>
+      <c r="G15" s="16">
+        <v>44934</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="18"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
-      <c r="M15" s="12" t="s">
+      <c r="M15" s="10" t="s">
         <v>8</v>
       </c>
       <c r="N15" s="10"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="16"/>
-    </row>
-    <row r="16" ht="14.25">
+      <c r="O15" s="12"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="15"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>24</v>
       </c>
@@ -1327,24 +1052,24 @@
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="17">
-        <v>44934</v>
-      </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="19"/>
+      <c r="G16" s="16">
+        <v>44934</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="18"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
-      <c r="M16" s="12" t="s">
+      <c r="M16" s="10" t="s">
         <v>8</v>
       </c>
       <c r="N16" s="10"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="16"/>
-    </row>
-    <row r="17" ht="14.25">
+      <c r="O16" s="12"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="15"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>25</v>
       </c>
@@ -1355,24 +1080,24 @@
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="17">
-        <v>44934</v>
-      </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="19"/>
+      <c r="G17" s="16">
+        <v>44934</v>
+      </c>
+      <c r="H17" s="17"/>
+      <c r="I17" s="18"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
-      <c r="M17" s="12" t="s">
+      <c r="M17" s="10" t="s">
         <v>8</v>
       </c>
       <c r="N17" s="10"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="16"/>
-    </row>
-    <row r="18" ht="14.25">
+      <c r="O17" s="12"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="15"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>26</v>
       </c>
@@ -1383,24 +1108,26 @@
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="17">
-        <v>44934</v>
-      </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="19"/>
+      <c r="G18" s="16">
+        <v>44934</v>
+      </c>
+      <c r="H18" s="17"/>
+      <c r="I18" s="18"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
-      <c r="M18" s="12" t="s">
+      <c r="M18" s="10" t="s">
         <v>8</v>
       </c>
       <c r="N18" s="10"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="16"/>
-    </row>
-    <row r="19" ht="14.25">
+      <c r="O18" s="12"/>
+      <c r="P18" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="15"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>27</v>
       </c>
@@ -1411,52 +1138,52 @@
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="17">
-        <v>44934</v>
-      </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="19"/>
+      <c r="G19" s="16">
+        <v>44934</v>
+      </c>
+      <c r="H19" s="17"/>
+      <c r="I19" s="18"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
-      <c r="M19" s="12" t="s">
+      <c r="M19" s="10" t="s">
         <v>8</v>
       </c>
       <c r="N19" s="10"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="16"/>
-    </row>
-    <row r="20" ht="51.75" customHeight="1">
-      <c r="A20" s="20" t="s">
+      <c r="O19" s="12"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="15"/>
+    </row>
+    <row r="20" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="6" t="s">
         <v>30</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="17">
-        <v>44934</v>
-      </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="19"/>
+      <c r="G20" s="16">
+        <v>44934</v>
+      </c>
+      <c r="H20" s="17"/>
+      <c r="I20" s="18"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
-      <c r="M20" s="12" t="s">
+      <c r="M20" s="10" t="s">
         <v>8</v>
       </c>
       <c r="N20" s="10"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="16"/>
-    </row>
-    <row r="21" ht="14.25">
+      <c r="O20" s="12"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="15"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>31</v>
       </c>
@@ -1467,24 +1194,24 @@
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="17">
-        <v>44934</v>
-      </c>
-      <c r="H21" s="18"/>
-      <c r="I21" s="19"/>
+      <c r="G21" s="16">
+        <v>44934</v>
+      </c>
+      <c r="H21" s="17"/>
+      <c r="I21" s="18"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
-      <c r="M21" s="12" t="s">
+      <c r="M21" s="10" t="s">
         <v>8</v>
       </c>
       <c r="N21" s="10"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="16"/>
-    </row>
-    <row r="22" ht="14.25">
+      <c r="O21" s="12"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="15"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>33</v>
       </c>
@@ -1495,24 +1222,24 @@
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="17">
-        <v>44934</v>
-      </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="19"/>
+      <c r="G22" s="16">
+        <v>44934</v>
+      </c>
+      <c r="H22" s="17"/>
+      <c r="I22" s="18"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
-      <c r="M22" s="12" t="s">
+      <c r="M22" s="10" t="s">
         <v>8</v>
       </c>
       <c r="N22" s="10"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="16"/>
-    </row>
-    <row r="23" ht="14.25">
+      <c r="O22" s="12"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="15"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>34</v>
       </c>
@@ -1523,25 +1250,25 @@
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="17">
-        <v>44934</v>
-      </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="19"/>
+      <c r="G23" s="16">
+        <v>44934</v>
+      </c>
+      <c r="H23" s="17"/>
+      <c r="I23" s="18"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
-      <c r="M23" s="12" t="s">
+      <c r="M23" s="10" t="s">
         <v>8</v>
       </c>
       <c r="N23" s="10"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="16"/>
-    </row>
-    <row r="24" ht="14.25">
-      <c r="A24" s="16"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="15"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -1555,13 +1282,13 @@
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="16"/>
-    </row>
-    <row r="25" ht="14.25">
-      <c r="A25" s="16"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="15"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -1575,13 +1302,151 @@
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="16"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="150">
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
@@ -1594,148 +1459,8 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="P25:R25"/>
   </mergeCells>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Recheche stage/Liste entreprises.xlsx
+++ b/Recheche stage/Liste entreprises.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="36">
   <si>
     <t>Nom Entreprise</t>
   </si>
@@ -148,12 +148,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -314,8 +320,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -331,53 +382,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,7 +651,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19:R19"/>
+      <selection activeCell="A21" sqref="A21:R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,36 +660,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3" t="s">
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="5"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="20"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -660,22 +702,22 @@
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="9">
-        <v>44934</v>
-      </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="10"/>
+      <c r="G2" s="21">
+        <v>44934</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="3"/>
       <c r="O2" s="12"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="15"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -688,22 +730,22 @@
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="16">
-        <v>44934</v>
-      </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="10"/>
+      <c r="G3" s="9">
+        <v>44934</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="3"/>
       <c r="O3" s="12"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="15"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -716,22 +758,22 @@
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="16">
-        <v>44934</v>
-      </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="10"/>
+      <c r="G4" s="9">
+        <v>44934</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="3"/>
       <c r="O4" s="12"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="15"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -744,22 +786,22 @@
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="16">
-        <v>44934</v>
-      </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" s="10"/>
+      <c r="G5" s="9">
+        <v>44934</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="3"/>
       <c r="O5" s="12"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="15"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -772,22 +814,22 @@
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="16">
-        <v>44934</v>
-      </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="10"/>
+      <c r="G6" s="9">
+        <v>44934</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="3"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="15"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -800,22 +842,22 @@
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="16">
-        <v>44934</v>
-      </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="10"/>
+      <c r="G7" s="9">
+        <v>44934</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="3"/>
       <c r="O7" s="12"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="15"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -828,22 +870,22 @@
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="16">
-        <v>44934</v>
-      </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" s="10"/>
+      <c r="G8" s="9">
+        <v>44934</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="3"/>
       <c r="O8" s="12"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="15"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -856,22 +898,22 @@
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="16">
-        <v>44934</v>
-      </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="10"/>
+      <c r="G9" s="9">
+        <v>44934</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="3"/>
       <c r="O9" s="12"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="15"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -884,22 +926,22 @@
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="16">
-        <v>44934</v>
-      </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="10"/>
+      <c r="G10" s="9">
+        <v>44934</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="3"/>
       <c r="O10" s="12"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="15"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -912,22 +954,22 @@
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="16">
-        <v>44934</v>
-      </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="10"/>
+      <c r="G11" s="9">
+        <v>44934</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="3"/>
       <c r="O11" s="12"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="15"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -940,50 +982,50 @@
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="16">
-        <v>44934</v>
-      </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="N12" s="10"/>
+      <c r="G12" s="9">
+        <v>44934</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
       <c r="O12" s="12"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="15"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="16">
-        <v>44934</v>
-      </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="N13" s="10"/>
+      <c r="G13" s="9">
+        <v>44934</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" s="3"/>
       <c r="O13" s="12"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="15"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
@@ -996,22 +1038,22 @@
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="16">
-        <v>44934</v>
-      </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="10"/>
+      <c r="G14" s="9">
+        <v>44934</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3"/>
       <c r="O14" s="12"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="15"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
@@ -1024,50 +1066,52 @@
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="16">
-        <v>44934</v>
-      </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="N15" s="10"/>
+      <c r="G15" s="9">
+        <v>44934</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="3"/>
       <c r="O15" s="12"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="15"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="6" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="16">
-        <v>44934</v>
-      </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="N16" s="10"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="15"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25">
+        <v>44934</v>
+      </c>
+      <c r="H16" s="26"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="N16" s="29"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="33"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
@@ -1080,52 +1124,52 @@
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="16">
-        <v>44934</v>
-      </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="N17" s="10"/>
+      <c r="G17" s="9">
+        <v>44934</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="3"/>
       <c r="O17" s="12"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="15"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="1"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="6" t="s">
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="16">
-        <v>44934</v>
-      </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="10"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="13" t="s">
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25">
+        <v>44934</v>
+      </c>
+      <c r="H18" s="26"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="29"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="15"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="33"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
@@ -1138,78 +1182,80 @@
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="16">
-        <v>44934</v>
-      </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="N19" s="10"/>
+      <c r="G19" s="9">
+        <v>44934</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="3"/>
       <c r="O19" s="12"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="15"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="1"/>
     </row>
     <row r="20" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="6" t="s">
         <v>30</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="16">
-        <v>44934</v>
-      </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="10"/>
+      <c r="G20" s="9">
+        <v>44934</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="3"/>
       <c r="O20" s="12"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="15"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="1"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="6" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="16">
-        <v>44934</v>
-      </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="10"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="15"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25">
+        <v>44934</v>
+      </c>
+      <c r="H21" s="26"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="29"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="33"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -1222,22 +1268,22 @@
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="16">
-        <v>44934</v>
-      </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="10"/>
+      <c r="G22" s="9">
+        <v>44934</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3"/>
       <c r="O22" s="12"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="15"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="1"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
@@ -1250,65 +1296,197 @@
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="16">
-        <v>44934</v>
-      </c>
-      <c r="H23" s="17"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="N23" s="10"/>
+      <c r="G23" s="9">
+        <v>44934</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="3"/>
       <c r="O23" s="12"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="15"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="1"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="15"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="1"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="15"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="150">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:R22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -1327,138 +1505,6 @@
     <mergeCell ref="J24:L24"/>
     <mergeCell ref="M24:O24"/>
     <mergeCell ref="P24:R24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
   </mergeCells>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>

--- a/Recheche stage/Liste entreprises.xlsx
+++ b/Recheche stage/Liste entreprises.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
   <si>
     <t>Nom Entreprise</t>
   </si>
@@ -651,7 +651,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:R21"/>
+      <selection activeCell="A9" sqref="A9:R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,32 +888,34 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="6" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9">
-        <v>44934</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="1"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25">
+        <v>44934</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="29"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="33"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">

--- a/Recheche stage/Liste entreprises.xlsx
+++ b/Recheche stage/Liste entreprises.xlsx
@@ -1,57 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\59011-14-05\Recheche stage\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
-  <si>
-    <t>Nom Entreprise</t>
-  </si>
-  <si>
-    <t>Lieu entreprise</t>
-  </si>
-  <si>
-    <t>Date prise contact</t>
-  </si>
-  <si>
-    <t>Date relancement</t>
-  </si>
-  <si>
-    <t>Contact Entreprise</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t xml:space="preserve">Nom Entreprise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lieu entreprise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date prise contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date relancement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact Entreprise</t>
   </si>
   <si>
     <t>Réponse</t>
   </si>
   <si>
-    <t>NORD SERVICE TELEMATIQUE SARL</t>
+    <t xml:space="preserve">NORD SERVICE TELEMATIQUE SARL</t>
   </si>
   <si>
     <t>LILLE</t>
   </si>
   <si>
-    <t>Par sponteo</t>
-  </si>
-  <si>
-    <t>BIZZDEV FRANCE</t>
-  </si>
-  <si>
-    <t>EASY DEVELOPPEMENT</t>
+    <t xml:space="preserve">Par sponteo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIZZDEV FRANCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EASY DEVELOPPEMENT</t>
   </si>
   <si>
     <t>ALTEO</t>
@@ -60,31 +54,34 @@
     <t>NORDSOFT</t>
   </si>
   <si>
-    <t>VILLENEUVE D'ASCQ</t>
+    <t xml:space="preserve">VILLENEUVE D'ASCQ</t>
   </si>
   <si>
     <t>UNIS</t>
   </si>
   <si>
-    <t>ALTER WAY</t>
-  </si>
-  <si>
-    <t>INEAT CONSEIL</t>
+    <t xml:space="preserve">ALTER WAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INEAT CONSEIL</t>
+  </si>
+  <si>
+    <t>Neg</t>
   </si>
   <si>
     <t>EUROPRODUCTIQUE</t>
   </si>
   <si>
-    <t>BUSINESS APTITUDE</t>
+    <t xml:space="preserve">BUSINESS APTITUDE</t>
   </si>
   <si>
     <t>LEZENNES</t>
   </si>
   <si>
-    <t>CREATIVE INGENIERIE</t>
-  </si>
-  <si>
-    <t>SII (SOCIETE POUR L'INFORMATIQUE INDUSTRIEL)</t>
+    <t xml:space="preserve">CREATIVE INGENIERIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SII (SOCIETE POUR L'INFORMATIQUE INDUSTRIEL)</t>
   </si>
   <si>
     <t>INOUIT</t>
@@ -93,10 +90,10 @@
     <t>ELOSI</t>
   </si>
   <si>
-    <t>APSIDE NORD</t>
-  </si>
-  <si>
-    <t>AKKA I&amp;S</t>
+    <t xml:space="preserve">APSIDE NORD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AKKA I&amp;S</t>
   </si>
   <si>
     <t>DEVOTEAM</t>
@@ -105,10 +102,10 @@
     <t>NIJI</t>
   </si>
   <si>
-    <t>LA MADELEINE</t>
-  </si>
-  <si>
-    <t>TRAITEMENT ET GESTION INFORMATIQUE (TGI Maritime Software)</t>
+    <t xml:space="preserve">LA MADELEINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRAITEMENT ET GESTION INFORMATIQUE (TGI Maritime Software)</t>
   </si>
   <si>
     <t>DUNKERQUE</t>
@@ -123,32 +120,29 @@
     <t>SFEIR</t>
   </si>
   <si>
-    <t>LA COOPERATIVE DES TILLEULS</t>
-  </si>
-  <si>
-    <t>Neg</t>
+    <t xml:space="preserve">LA COOPERATIVE DES TILLEULS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,8 +151,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="2"/>
+        <bgColor indexed="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="2"/>
+        <bgColor indexed="2"/>
       </patternFill>
     </fill>
   </fills>
@@ -318,107 +318,143 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="34">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+  <cellXfs count="46">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="10" numFmtId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="11" numFmtId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="12" numFmtId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="10" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="11" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="12" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="9" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="9" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="10" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="10" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="11" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="12" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="3" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="10" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="11" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="12" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="9" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="3" borderId="9" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="10" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="10" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="3" borderId="11" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="3" borderId="12" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -431,15 +467,295 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="New Office">
       <a:dk1>
@@ -642,56 +958,54 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:R9"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A9" activeCellId="0" sqref="A9:R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col customWidth="1" min="3" max="3" width="16.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="17" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17" t="s">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18" t="s">
+      <c r="N1" s="2"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="20"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q1" s="4"/>
+      <c r="R1" s="5"/>
+    </row>
+    <row r="2">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -702,24 +1016,24 @@
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="21">
-        <v>44934</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="3"/>
+      <c r="G2" s="9">
+        <v>44934</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="10"/>
       <c r="O2" s="12"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P2" s="13"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="15"/>
+    </row>
+    <row r="3">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -730,24 +1044,24 @@
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="9">
-        <v>44934</v>
-      </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="3"/>
+      <c r="G3" s="16">
+        <v>44934</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="10"/>
       <c r="O3" s="12"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P3" s="13"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="15"/>
+    </row>
+    <row r="4">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
@@ -758,24 +1072,24 @@
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="9">
-        <v>44934</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="3"/>
+      <c r="G4" s="16">
+        <v>44934</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="10"/>
       <c r="O4" s="12"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P4" s="13"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="15"/>
+    </row>
+    <row r="5">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -786,24 +1100,24 @@
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="9">
-        <v>44934</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" s="3"/>
+      <c r="G5" s="16">
+        <v>44934</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="10"/>
       <c r="O5" s="12"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="1"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P5" s="13"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="15"/>
+    </row>
+    <row r="6">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -814,24 +1128,24 @@
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="9">
-        <v>44934</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="3"/>
+      <c r="G6" s="16">
+        <v>44934</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="10"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P6" s="13"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="15"/>
+    </row>
+    <row r="7">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -842,24 +1156,24 @@
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="9">
-        <v>44934</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="3"/>
+      <c r="G7" s="16">
+        <v>44934</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="10"/>
       <c r="O7" s="12"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="1"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P7" s="13"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="15"/>
+    </row>
+    <row r="8">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -870,56 +1184,56 @@
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="9">
-        <v>44934</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" s="3"/>
+      <c r="G8" s="16">
+        <v>44934</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="10"/>
       <c r="O8" s="12"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="1"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="P8" s="13"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="15"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="22" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25">
-        <v>44934</v>
-      </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="29"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="33"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22">
+        <v>44934</v>
+      </c>
+      <c r="H9" s="23"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="26"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="30"/>
+    </row>
+    <row r="10">
       <c r="A10" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -928,54 +1242,54 @@
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="9">
-        <v>44934</v>
-      </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="3"/>
+      <c r="G10" s="16">
+        <v>44934</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="10"/>
       <c r="O10" s="12"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P10" s="13"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="15"/>
+    </row>
+    <row r="11">
       <c r="A11" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
       <c r="D11" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="9">
-        <v>44934</v>
-      </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="3"/>
+      <c r="G11" s="16">
+        <v>44934</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="10"/>
       <c r="O11" s="12"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P11" s="13"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="15"/>
+    </row>
+    <row r="12">
       <c r="A12" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
@@ -984,54 +1298,54 @@
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="9">
-        <v>44934</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N12" s="3"/>
+      <c r="G12" s="16">
+        <v>44934</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="10"/>
       <c r="O12" s="12"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="15"/>
+    </row>
+    <row r="13" ht="32.25" customHeight="1">
+      <c r="A13" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="9">
-        <v>44934</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N13" s="3"/>
+      <c r="G13" s="16">
+        <v>44934</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" s="10"/>
       <c r="O13" s="12"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P13" s="13"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="15"/>
+    </row>
+    <row r="14">
       <c r="A14" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -1040,26 +1354,26 @@
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="9">
-        <v>44934</v>
-      </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="3"/>
+      <c r="G14" s="16">
+        <v>44934</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="10"/>
       <c r="O14" s="12"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P14" s="13"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="15"/>
+    </row>
+    <row r="15">
       <c r="A15" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -1068,200 +1382,200 @@
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="9">
-        <v>44934</v>
-      </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N15" s="3"/>
+      <c r="G15" s="16">
+        <v>44934</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="10"/>
       <c r="O15" s="12"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="22" t="s">
+      <c r="P15" s="13"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="15"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25">
-        <v>44934</v>
-      </c>
-      <c r="H16" s="26"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="N16" s="29"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="33"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22">
+        <v>44934</v>
+      </c>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="N16" s="26"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="30"/>
+    </row>
+    <row r="17">
       <c r="A17" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
       <c r="D17" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="9">
-        <v>44934</v>
-      </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N17" s="3"/>
+      <c r="G17" s="16">
+        <v>44934</v>
+      </c>
+      <c r="H17" s="17"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="10"/>
       <c r="O17" s="12"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="1"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="22" t="s">
+      <c r="P17" s="13"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="15"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25">
-        <v>44934</v>
-      </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="29"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="33"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22">
+        <v>44934</v>
+      </c>
+      <c r="H18" s="23"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="26"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="30"/>
+    </row>
+    <row r="19">
       <c r="A19" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
       <c r="D19" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="9">
-        <v>44934</v>
-      </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N19" s="3"/>
+      <c r="G19" s="16">
+        <v>44934</v>
+      </c>
+      <c r="H19" s="17"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="10"/>
       <c r="O19" s="12"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="1"/>
-    </row>
-    <row r="20" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="15"/>
+    </row>
+    <row r="20" ht="51.75" customHeight="1">
+      <c r="A20" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="9">
-        <v>44934</v>
-      </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="3"/>
+      <c r="G20" s="16">
+        <v>44934</v>
+      </c>
+      <c r="H20" s="17"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="10"/>
       <c r="O20" s="12"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="1"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="22" t="s">
+      <c r="P20" s="13"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="15"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25">
-        <v>44934</v>
-      </c>
-      <c r="H21" s="26"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="29"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="33"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22">
+        <v>44934</v>
+      </c>
+      <c r="H21" s="23"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="26"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="30"/>
+    </row>
+    <row r="22">
       <c r="A22" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
@@ -1270,90 +1584,92 @@
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="9">
-        <v>44934</v>
-      </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="3"/>
+      <c r="G22" s="16">
+        <v>44934</v>
+      </c>
+      <c r="H22" s="17"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="10"/>
       <c r="O22" s="12"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="1"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="6" t="s">
+      <c r="P22" s="13"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="15"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="35"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="9">
-        <v>44934</v>
-      </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N23" s="3"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="1"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="1"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="1"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="37">
+        <v>44934</v>
+      </c>
+      <c r="H23" s="38"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="41"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="45"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="15"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="15"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="150">
@@ -1489,12 +1805,6 @@
     <mergeCell ref="J22:L22"/>
     <mergeCell ref="M22:O22"/>
     <mergeCell ref="P22:R22"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="P25:R25"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="G23:I23"/>
@@ -1507,8 +1817,16 @@
     <mergeCell ref="J24:L24"/>
     <mergeCell ref="M24:O24"/>
     <mergeCell ref="P24:R24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="P25:R25"/>
   </mergeCells>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Recheche stage/Liste entreprises.xlsx
+++ b/Recheche stage/Liste entreprises.xlsx
@@ -127,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -141,19 +141,19 @@
       <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <color theme="0" tint="0"/>
+      <sz val="11.000000"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="2"/>
-        <bgColor indexed="2"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -320,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="34">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -376,40 +376,40 @@
     <xf fontId="0" fillId="0" borderId="12" numFmtId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="2" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="2" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="2" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="10" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="2" borderId="10" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="11" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="2" borderId="11" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="12" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="2" borderId="12" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="9" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="2" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="9" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="2" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="10" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="2" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="10" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="2" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="11" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="2" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="12" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="2" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -420,42 +420,6 @@
     </xf>
     <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="10" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="11" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="12" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="9" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="9" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="10" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="10" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="11" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="12" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1232,32 +1196,34 @@
       <c r="R9" s="30"/>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="6" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="16">
-        <v>44934</v>
-      </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="10"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="15"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22">
+        <v>44934</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="26"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="30"/>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
@@ -1602,34 +1568,34 @@
       <c r="R22" s="15"/>
     </row>
     <row r="23">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="34" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="37">
-        <v>44934</v>
-      </c>
-      <c r="H23" s="38"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="N23" s="41"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="43" t="s">
+      <c r="E23" s="20"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22">
+        <v>44934</v>
+      </c>
+      <c r="H23" s="23"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="26"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="45"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="30"/>
     </row>
     <row r="24">
       <c r="A24" s="15"/>

--- a/Recheche stage/Liste entreprises.xlsx
+++ b/Recheche stage/Liste entreprises.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">Nom Entreprise</t>
   </si>
@@ -121,13 +121,22 @@
   </si>
   <si>
     <t xml:space="preserve">LA COOPERATIVE DES TILLEULS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IEMN (CNRS)</t>
+  </si>
+  <si>
+    <t>billel.guerboukha@iemn.fr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="160" formatCode="dd/mm/yyyy"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -146,6 +155,12 @@
       <color theme="0" tint="0"/>
       <sz val="11.000000"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color theme="10"/>
+      <sz val="11.000000"/>
+      <u/>
     </font>
   </fonts>
   <fills count="3">
@@ -320,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -420,6 +435,18 @@
     </xf>
     <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -928,7 +955,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="F13" zoomScale="100" workbookViewId="0">
       <selection activeCell="A9" activeCellId="0" sqref="A9:R9"/>
     </sheetView>
   </sheetViews>
@@ -1598,19 +1625,27 @@
       <c r="R23" s="30"/>
     </row>
     <row r="24">
-      <c r="A24" s="15"/>
+      <c r="A24" s="34" t="s">
+        <v>36</v>
+      </c>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="D24" s="35" t="s">
+        <v>13</v>
+      </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="10"/>
+      <c r="G24" s="36">
+        <v>44942</v>
+      </c>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
+      <c r="M24" s="37" t="s">
+        <v>37</v>
+      </c>
       <c r="N24" s="11"/>
       <c r="O24" s="13"/>
       <c r="P24" s="13"/>
@@ -1790,6 +1825,9 @@
     <mergeCell ref="M25:O25"/>
     <mergeCell ref="P25:R25"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="M24"/>
+  </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
